--- a/classification/droptc/sentence/modern-bert/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/14298463/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6299176216125488</v>
+        <v>0.3977214097976685</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8160886764526367</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4065914154052734</v>
+        <v>0.8695642352104187</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6186432838439941</v>
+        <v>0.7644397020339966</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6356186270713806</v>
+        <v>0.9745123386383057</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4766616821289062</v>
+        <v>0.796518862247467</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5593124628067017</v>
+        <v>0.7189443707466125</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7581731081008911</v>
+        <v>0.8961217403411865</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6167670488357544</v>
+        <v>0.7189443707466125</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4878388047218323</v>
+        <v>0.7971512079238892</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.591194748878479</v>
+        <v>0.8097944259643555</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5454593300819397</v>
+        <v>0.8138971924781799</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6114245653152466</v>
+        <v>0.8653707504272461</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.695435106754303</v>
+        <v>0.9488372802734375</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6798250675201416</v>
+        <v>0.8869788646697998</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7990027666091919</v>
+        <v>0.791159451007843</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6770482063293457</v>
+        <v>0.6777336001396179</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7171255350112915</v>
+        <v>0.9863340258598328</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3056724071502686</v>
+        <v>0.8855584859848022</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5348467230796814</v>
+        <v>0.9971326589584351</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3912161290645599</v>
+        <v>0.8214432597160339</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3386057615280151</v>
+        <v>0.9903970956802368</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8286988735198975</v>
+        <v>0.937201201915741</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.621343195438385</v>
+        <v>0.4261130392551422</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4055683314800262</v>
+        <v>0.5871508121490479</v>
       </c>
     </row>
     <row r="27">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3472939431667328</v>
+        <v>0.9724847674369812</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6382982134819031</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8804859519004822</v>
+        <v>0.744498610496521</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7317498922348022</v>
+        <v>0.932951033115387</v>
       </c>
     </row>
     <row r="31">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3580591976642609</v>
+        <v>0.8773837089538574</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8372828364372253</v>
+        <v>0.896694540977478</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6105229258537292</v>
+        <v>0.6697712540626526</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7509306073188782</v>
+        <v>0.938849925994873</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8427004218101501</v>
+        <v>0.9706993103027344</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5564776659011841</v>
+        <v>0.9606726765632629</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.916405975818634</v>
+        <v>0.9724985361099243</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8595123291015625</v>
+        <v>0.9623309373855591</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6674095988273621</v>
+        <v>0.973474383354187</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6792387962341309</v>
+        <v>0.2708477079868317</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8753213286399841</v>
+        <v>0.9968306422233582</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.4980147480964661</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5798541307449341</v>
+        <v>0.6627676486968994</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4871158301830292</v>
+        <v>0.9125421047210693</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3720602989196777</v>
+        <v>0.8791838884353638</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3056724071502686</v>
+        <v>0.8997406959533691</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.736358106136322</v>
+        <v>0.6140252947807312</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7591572999954224</v>
+        <v>0.8678609728813171</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.657856285572052</v>
+        <v>0.9992591738700867</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5707655549049377</v>
+        <v>0.8891658782958984</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3797108829021454</v>
+        <v>0.7216656804084778</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6303864717483521</v>
+        <v>0.9359169602394104</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8804859519004822</v>
+        <v>0.8891658782958984</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6609660387039185</v>
+        <v>0.6304721832275391</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5394468307495117</v>
+        <v>0.9972579479217529</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3487513661384583</v>
+        <v>0.9981852173805237</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.675457775592804</v>
+        <v>0.998664379119873</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3843288123607635</v>
+        <v>0.84232097864151</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7528761625289917</v>
+        <v>0.9887121915817261</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8653528690338135</v>
+        <v>0.8599278330802917</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7744340300559998</v>
+        <v>0.970082700252533</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6382127404212952</v>
+        <v>0.8524138331413269</v>
       </c>
     </row>
     <row r="63">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.283065527677536</v>
+        <v>0.8866605162620544</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.505168616771698</v>
+        <v>0.7281556129455566</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7461724281311035</v>
+        <v>0.925420880317688</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7403808832168579</v>
+        <v>0.925420880317688</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5819486975669861</v>
+        <v>0.7897037863731384</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2989445924758911</v>
+        <v>0.925420880317688</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9494341015815735</v>
+        <v>0.746917188167572</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4633549153804779</v>
+        <v>0.9383471012115479</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4560807347297668</v>
+        <v>0.6190550923347473</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7207934260368347</v>
+        <v>0.9908332228660583</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3314854502677917</v>
+        <v>0.8821743130683899</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5959067940711975</v>
+        <v>0.7168342471122742</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5814486742019653</v>
+        <v>0.560813844203949</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9343322515487671</v>
+        <v>0.8821743130683899</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7318195700645447</v>
+        <v>0.5694211721420288</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8148297667503357</v>
+        <v>0.8821743130683899</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.9949298501014709</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3843565583229065</v>
+        <v>0.4623743295669556</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7139748930931091</v>
+        <v>0.3987496495246887</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8366216421127319</v>
+        <v>0.5824942588806152</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5170271396636963</v>
+        <v>0.8667158484458923</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.8667158484458923</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8048180341720581</v>
+        <v>0.9872978925704956</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.73195880651474</v>
+        <v>0.8790932297706604</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6663283109664917</v>
+        <v>0.9256356358528137</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7004184722900391</v>
+        <v>0.8175602555274963</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7032893300056458</v>
+        <v>0.7142361402511597</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5428851842880249</v>
+        <v>0.9831377267837524</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5502249598503113</v>
+        <v>0.9814426302909851</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8574279546737671</v>
+        <v>0.9819425940513611</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.405866265296936</v>
+        <v>0.9873607158660889</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5850273966789246</v>
+        <v>0.9871045351028442</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5603194236755371</v>
+        <v>0.9810854196548462</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6337928175926208</v>
+        <v>0.979539155960083</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6880313158035278</v>
+        <v>0.3007213175296783</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5044381022453308</v>
+        <v>0.9878386259078979</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6339446306228638</v>
+        <v>0.9138582944869995</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8082687854766846</v>
+        <v>0.7825233340263367</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3865020275115967</v>
+        <v>0.952172577381134</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5034313797950745</v>
+        <v>0.5128492116928101</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5613832473754883</v>
+        <v>0.7050918936729431</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5998411178588867</v>
+        <v>0.8684492111206055</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7180218696594238</v>
+        <v>0.9588474035263062</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7704775333404541</v>
+        <v>0.9536040425300598</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.588303804397583</v>
+        <v>0.514093279838562</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6927314400672913</v>
+        <v>0.5981680154800415</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7058783769607544</v>
+        <v>0.9554570317268372</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3795566558837891</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.7421668767929077</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5613832473754883</v>
+        <v>0.6197507381439209</v>
       </c>
     </row>
     <row r="113">
@@ -3591,14 +3591,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3994462192058563</v>
+        <v>0.8840566277503967</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.651716947555542</v>
+        <v>0.9767369031906128</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7055706977844238</v>
+        <v>0.7208280563354492</v>
       </c>
     </row>
     <row r="116">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6542722582817078</v>
+        <v>0.3843763768672943</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6561970114707947</v>
+        <v>0.8616874217987061</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4362176358699799</v>
+        <v>0.5076075196266174</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4120540618896484</v>
+        <v>0.7704162001609802</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.496536910533905</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8551567792892456</v>
+        <v>0.8526361584663391</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6395993232727051</v>
+        <v>0.9632251262664795</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.605578601360321</v>
+        <v>0.8526361584663391</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7363381385803223</v>
+        <v>0.9632251262664795</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4723401367664337</v>
+        <v>0.8526361584663391</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4614670872688293</v>
+        <v>0.995012104511261</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5348467230796814</v>
+        <v>0.2749446034431458</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8637703657150269</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3420526087284088</v>
+        <v>0.7550877928733826</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4824588298797607</v>
+        <v>0.504791796207428</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5282171368598938</v>
+        <v>0.9886482357978821</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7985707521438599</v>
+        <v>0.6909748911857605</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3905278146266937</v>
+        <v>0.9600588083267212</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4074015319347382</v>
+        <v>0.5423054099082947</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.9927691221237183</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7395065426826477</v>
+        <v>0.8795871138572693</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7377597093582153</v>
+        <v>0.9793633222579956</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7651119828224182</v>
+        <v>0.8360974788665771</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7834408283233643</v>
+        <v>0.9893947243690491</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4055090844631195</v>
+        <v>0.9931923747062683</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.477958619594574</v>
+        <v>0.7576518058776855</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7382196187973022</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8304948806762695</v>
+        <v>0.402724951505661</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5891923308372498</v>
+        <v>0.9756985306739807</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7428195476531982</v>
+        <v>0.402724951505661</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7379442453384399</v>
+        <v>0.9666703939437866</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3022941052913666</v>
+        <v>0.746917188167572</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2946566045284271</v>
+        <v>0.9129652976989746</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.8084131479263306</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4930126368999481</v>
+        <v>0.4225646555423737</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.25928595662117</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4362176358699799</v>
+        <v>0.4263315200805664</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2728564143180847</v>
+        <v>0.984336256980896</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2985093891620636</v>
+        <v>0.7617580890655518</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.2520395517349243</v>
+        <v>0.9963623881340027</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8612213730812073</v>
+        <v>0.5596504211425781</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5970305204391479</v>
+        <v>0.9957606196403503</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8545071482658386</v>
+        <v>0.7618498802185059</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.7878709435462952</v>
+        <v>0.997893750667572</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5718696117401123</v>
+        <v>0.6967363953590393</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7288997769355774</v>
+        <v>0.9867677092552185</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.314848780632019</v>
+        <v>0.9650726914405823</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7596008777618408</v>
+        <v>0.8454505205154419</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2989445924758911</v>
+        <v>0.5933310985565186</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4362176358699799</v>
+        <v>0.992482602596283</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7584578394889832</v>
+        <v>0.9096516966819763</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6167670488357544</v>
+        <v>0.7015703320503235</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8395206928253174</v>
+        <v>0.5711613893508911</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8907793164253235</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5940806865692139</v>
+        <v>0.7015703320503235</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7916465997695923</v>
+        <v>0.7896673679351807</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.6287757754325867</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.9098921418190002</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8147585988044739</v>
+        <v>0.9241921901702881</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8990702033042908</v>
+        <v>0.9098921418190002</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6761535406112671</v>
+        <v>0.8283459544181824</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4661051332950592</v>
+        <v>0.9241921901702881</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3660006523132324</v>
+        <v>0.8805210590362549</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9314822554588318</v>
+        <v>0.9842961430549622</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5808179378509521</v>
+        <v>0.9578388333320618</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7452536225318909</v>
+        <v>0.6047452688217163</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7389565110206604</v>
+        <v>0.9703294634819031</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4055090844631195</v>
+        <v>0.4822903871536255</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8186718821525574</v>
+        <v>0.9993823766708374</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.662681519985199</v>
+        <v>0.9664638042449951</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.485832542181015</v>
+        <v>0.9674863815307617</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.7493599057197571</v>
+        <v>0.9748334884643555</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.2710350751876831</v>
+        <v>0.9701369404792786</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4557936191558838</v>
+        <v>0.9691668152809143</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2946566045284271</v>
+        <v>0.9742528200149536</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5744565725326538</v>
+        <v>0.4130015075206757</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.2544722259044647</v>
+        <v>0.9587271213531494</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7951454520225525</v>
+        <v>0.975399374961853</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5726383328437805</v>
+        <v>0.9113204479217529</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6507740616798401</v>
+        <v>0.6015732288360596</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.4993166625499725</v>
+        <v>0.9989075660705566</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.2946566045284271</v>
+        <v>0.8171480298042297</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4519772827625275</v>
+        <v>0.5156848430633545</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3843288123607635</v>
+        <v>0.9237805008888245</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.8879709839820862</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5807369947433472</v>
+        <v>0.9982486963272095</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4557936191558838</v>
+        <v>0.9797163605690002</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9124618172645569</v>
+        <v>0.8170952796936035</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5073409676551819</v>
+        <v>0.383656919002533</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.3770613968372345</v>
+        <v>0.6993100047111511</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6186432838439941</v>
+        <v>0.9953145980834961</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055090844631195</v>
+        <v>0.4813528954982758</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.5730472207069397</v>
+        <v>0.9687938690185547</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6614254713058472</v>
+        <v>0.4277598559856415</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8637891411781311</v>
+        <v>0.9993690848350525</v>
       </c>
     </row>
   </sheetData>
